--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo_EffectAbility.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo_EffectAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B732152D-46C0-4D84-9D23-7B9101542DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9DAD3-EE9B-46B1-917C-1E4E9F91BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="28800" windowHeight="15345" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>EffectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataUnitType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2E12A-5366-4C7A-9667-41338698090D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,9 +464,10 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -478,192 +483,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,9 +680,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0EF5-FF8C-48D0-85D0-A5ABB4EF764C}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -683,7 +693,7 @@
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -699,228 +709,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,15 +942,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D1BFB-24F6-48A0-A008-1A4B0B7A7FCD}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -953,228 +966,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,13 +1199,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1205,228 +1223,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1469,7 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1464,228 +1485,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1694,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF9C77-F5E5-4253-B080-E4A4AF2B33F0}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1706,9 +1730,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1724,228 +1749,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C901BB9-BBE8-4E57-82B3-8A4F764FD54A}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1994,7 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1982,228 +2010,231 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
